--- a/list/HNS.xlsx
+++ b/list/HNS.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28695" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="HNS" sheetId="1" r:id="rId1"/>
+    <sheet name="hns" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -844,9 +844,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -932,15 +932,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,9 +948,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,7 +964,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,10 +1008,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1000,18 +1024,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1022,42 +1039,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1075,7 +1060,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,7 +1126,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,67 +1204,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,7 +1234,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,79 +1294,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,6 +1633,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1648,13 +1668,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1673,186 +1706,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2333,9 +2333,9 @@
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D122" sqref="D122"/>
+      <selection pane="bottomLeft" activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4444444444444" defaultRowHeight="27" customHeight="1"/>
@@ -2598,7 +2598,7 @@
       <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="11" t="s">
